--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.020639</v>
+        <v>0.1120823333333333</v>
       </c>
       <c r="N2">
-        <v>0.06191699999999999</v>
+        <v>0.336247</v>
       </c>
       <c r="O2">
-        <v>0.04417978733879518</v>
+        <v>0.06973348092422314</v>
       </c>
       <c r="P2">
-        <v>0.0550314633105802</v>
+        <v>0.09934163605390525</v>
       </c>
       <c r="Q2">
-        <v>3.131474393128333</v>
+        <v>16.22765065211167</v>
       </c>
       <c r="R2">
-        <v>28.183269538155</v>
+        <v>146.048855869005</v>
       </c>
       <c r="S2">
-        <v>0.01193180949544159</v>
+        <v>0.01694555897600202</v>
       </c>
       <c r="T2">
-        <v>0.01531727313510762</v>
+        <v>0.02493601052151442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1120823333333333</v>
+        <v>0.05808</v>
       </c>
       <c r="N3">
-        <v>0.336247</v>
+        <v>0.17424</v>
       </c>
       <c r="O3">
-        <v>0.2399231382868657</v>
+        <v>0.03613522712838074</v>
       </c>
       <c r="P3">
-        <v>0.2988543444254835</v>
+        <v>0.05147789174634257</v>
       </c>
       <c r="Q3">
-        <v>17.00581213990056</v>
+        <v>8.409014354399998</v>
       </c>
       <c r="R3">
-        <v>153.052309259105</v>
+        <v>75.6811291896</v>
       </c>
       <c r="S3">
-        <v>0.06479698866892371</v>
+        <v>0.008781027625461615</v>
       </c>
       <c r="T3">
-        <v>0.08318211702538128</v>
+        <v>0.01292160368202147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05808</v>
+        <v>1.4371335</v>
       </c>
       <c r="N4">
-        <v>0.17424</v>
+        <v>2.874267</v>
       </c>
       <c r="O4">
-        <v>0.1243258902387337</v>
+        <v>0.8941312919473962</v>
       </c>
       <c r="P4">
-        <v>0.154863481228669</v>
+        <v>0.8491804721997522</v>
       </c>
       <c r="Q4">
-        <v>8.812250242400001</v>
+        <v>208.0729378562175</v>
       </c>
       <c r="R4">
-        <v>79.31025218160001</v>
+        <v>1248.437627137305</v>
       </c>
       <c r="S4">
-        <v>0.0335771837538276</v>
+        <v>0.2172780469176367</v>
       </c>
       <c r="T4">
-        <v>0.04310418255182184</v>
+        <v>0.2131550680114371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.276358</v>
+        <v>0.1120823333333333</v>
       </c>
       <c r="N5">
-        <v>0.552716</v>
+        <v>0.336247</v>
       </c>
       <c r="O5">
-        <v>0.5915711841356054</v>
+        <v>0.06973348092422314</v>
       </c>
       <c r="P5">
-        <v>0.4912507110352674</v>
+        <v>0.09934163605390525</v>
       </c>
       <c r="Q5">
-        <v>41.93071371365667</v>
+        <v>9.218645375712333</v>
       </c>
       <c r="R5">
-        <v>251.58428228194</v>
+        <v>82.967808381411</v>
       </c>
       <c r="S5">
-        <v>0.1597679639779664</v>
+        <v>0.009626476576426282</v>
       </c>
       <c r="T5">
-        <v>0.1367330771539988</v>
+        <v>0.01416571277081071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
         <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.020639</v>
+        <v>0.05808</v>
       </c>
       <c r="N6">
-        <v>0.06191699999999999</v>
+        <v>0.17424</v>
       </c>
       <c r="O6">
-        <v>0.04417978733879518</v>
+        <v>0.03613522712838074</v>
       </c>
       <c r="P6">
-        <v>0.0550314633105802</v>
+        <v>0.05147789174634257</v>
       </c>
       <c r="Q6">
-        <v>1.697534448569</v>
+        <v>4.777014427679999</v>
       </c>
       <c r="R6">
-        <v>15.277810037121</v>
+        <v>42.99312984912</v>
       </c>
       <c r="S6">
-        <v>0.006468089822711424</v>
+        <v>0.00498834868021578</v>
       </c>
       <c r="T6">
-        <v>0.008303308774308755</v>
+        <v>0.007340537739180002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1120823333333333</v>
+        <v>1.4371335</v>
       </c>
       <c r="N7">
-        <v>0.336247</v>
+        <v>2.874267</v>
       </c>
       <c r="O7">
-        <v>0.2399231382868657</v>
+        <v>0.8941312919473962</v>
       </c>
       <c r="P7">
-        <v>0.2988543444254835</v>
+        <v>0.8491804721997522</v>
       </c>
       <c r="Q7">
-        <v>9.218645375712333</v>
+        <v>118.2026078512785</v>
       </c>
       <c r="R7">
-        <v>82.967808381411</v>
+        <v>709.215647107671</v>
       </c>
       <c r="S7">
-        <v>0.03512566498081703</v>
+        <v>0.1234318698006006</v>
       </c>
       <c r="T7">
-        <v>0.0450920210190254</v>
+        <v>0.1210896773759165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H8">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.05808</v>
+        <v>0.1120823333333333</v>
       </c>
       <c r="N8">
-        <v>0.17424</v>
+        <v>0.336247</v>
       </c>
       <c r="O8">
-        <v>0.1243258902387337</v>
+        <v>0.06973348092422314</v>
       </c>
       <c r="P8">
-        <v>0.154863481228669</v>
+        <v>0.09934163605390525</v>
       </c>
       <c r="Q8">
-        <v>4.77701442768</v>
+        <v>18.36570918243745</v>
       </c>
       <c r="R8">
-        <v>42.99312984912</v>
+        <v>165.291382641937</v>
       </c>
       <c r="S8">
-        <v>0.01820178578918938</v>
+        <v>0.01917820482822618</v>
       </c>
       <c r="T8">
-        <v>0.02336625677658087</v>
+        <v>0.02822143064490607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H9">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.276358</v>
+        <v>0.05808</v>
       </c>
       <c r="N9">
-        <v>0.552716</v>
+        <v>0.17424</v>
       </c>
       <c r="O9">
-        <v>0.5915711841356054</v>
+        <v>0.03613522712838074</v>
       </c>
       <c r="P9">
-        <v>0.4912507110352674</v>
+        <v>0.05147789174634257</v>
       </c>
       <c r="Q9">
-        <v>22.730133491818</v>
+        <v>9.51693596656</v>
       </c>
       <c r="R9">
-        <v>136.380800950908</v>
+        <v>85.65242369904</v>
       </c>
       <c r="S9">
-        <v>0.08660828369712116</v>
+        <v>0.009937963488953443</v>
       </c>
       <c r="T9">
-        <v>0.07412134975048595</v>
+        <v>0.01462407716817825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.020639</v>
+        <v>1.4371335</v>
       </c>
       <c r="N10">
-        <v>0.06191699999999999</v>
+        <v>2.874267</v>
       </c>
       <c r="O10">
-        <v>0.04417978733879518</v>
+        <v>0.8941312919473962</v>
       </c>
       <c r="P10">
-        <v>0.0550314633105802</v>
+        <v>0.8491804721997522</v>
       </c>
       <c r="Q10">
-        <v>2.547767341119</v>
+        <v>235.4873879975595</v>
       </c>
       <c r="R10">
-        <v>22.929906070071</v>
+        <v>1412.924327985357</v>
       </c>
       <c r="S10">
-        <v>0.00970771934768104</v>
+        <v>0.2459053073648739</v>
       </c>
       <c r="T10">
-        <v>0.01246213232152313</v>
+        <v>0.2412391093316587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H11">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I11">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J11">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,27 +1122,27 @@
         <v>0.336247</v>
       </c>
       <c r="O11">
-        <v>0.2399231382868657</v>
+        <v>0.06973348092422314</v>
       </c>
       <c r="P11">
-        <v>0.2988543444254835</v>
+        <v>0.09934163605390525</v>
       </c>
       <c r="Q11">
-        <v>13.835927534429</v>
+        <v>6.3913616243155</v>
       </c>
       <c r="R11">
-        <v>124.523347809861</v>
+        <v>38.348169745893</v>
       </c>
       <c r="S11">
-        <v>0.05271882532260456</v>
+        <v>0.006674114304260109</v>
       </c>
       <c r="T11">
-        <v>0.06767696443166155</v>
+        <v>0.00654746905461618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,22 +1154,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,27 +1184,27 @@
         <v>0.17424</v>
       </c>
       <c r="O12">
-        <v>0.1243258902387337</v>
+        <v>0.03613522712838074</v>
       </c>
       <c r="P12">
-        <v>0.154863481228669</v>
+        <v>0.05147789174634257</v>
       </c>
       <c r="Q12">
-        <v>7.16964616368</v>
+        <v>3.31194285576</v>
       </c>
       <c r="R12">
-        <v>64.52681547312001</v>
+        <v>19.87165713456</v>
       </c>
       <c r="S12">
-        <v>0.02731839428815906</v>
+        <v>0.003458462607470941</v>
       </c>
       <c r="T12">
-        <v>0.03506955982528531</v>
+        <v>0.003392836242632122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.276358</v>
+        <v>1.4371335</v>
       </c>
       <c r="N13">
-        <v>0.552716</v>
+        <v>2.874267</v>
       </c>
       <c r="O13">
-        <v>0.5915711841356054</v>
+        <v>0.8941312919473962</v>
       </c>
       <c r="P13">
-        <v>0.4912507110352674</v>
+        <v>0.8491804721997522</v>
       </c>
       <c r="Q13">
-        <v>34.114825662918</v>
+        <v>81.95082693006825</v>
       </c>
       <c r="R13">
-        <v>204.688953977508</v>
+        <v>327.803307720273</v>
       </c>
       <c r="S13">
-        <v>0.1299872040063199</v>
+        <v>0.08557631666139531</v>
       </c>
       <c r="T13">
-        <v>0.1112460217423806</v>
+        <v>0.05596830376837409</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H14">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I14">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J14">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.020639</v>
+        <v>0.1120823333333333</v>
       </c>
       <c r="N14">
-        <v>0.06191699999999999</v>
+        <v>0.336247</v>
       </c>
       <c r="O14">
-        <v>0.04417978733879518</v>
+        <v>0.06973348092422314</v>
       </c>
       <c r="P14">
-        <v>0.0550314633105802</v>
+        <v>0.09934163605390525</v>
       </c>
       <c r="Q14">
-        <v>1.0326168976875</v>
+        <v>16.57581517981111</v>
       </c>
       <c r="R14">
-        <v>6.195701386125</v>
+        <v>149.1823366183</v>
       </c>
       <c r="S14">
-        <v>0.003934564539955418</v>
+        <v>0.01730912623930856</v>
       </c>
       <c r="T14">
-        <v>0.003367290309109188</v>
+        <v>0.02547101306205788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,25 +1337,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H15">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I15">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J15">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,33 +1364,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.1120823333333333</v>
+        <v>0.05808</v>
       </c>
       <c r="N15">
-        <v>0.336247</v>
+        <v>0.17424</v>
       </c>
       <c r="O15">
-        <v>0.2399231382868657</v>
+        <v>0.03613522712838074</v>
       </c>
       <c r="P15">
-        <v>0.2988543444254835</v>
+        <v>0.05147789174634257</v>
       </c>
       <c r="Q15">
-        <v>5.6077383270625</v>
+        <v>8.589429903999999</v>
       </c>
       <c r="R15">
-        <v>33.646429962375</v>
+        <v>77.30486913600001</v>
       </c>
       <c r="S15">
-        <v>0.02136708049269812</v>
+        <v>0.008969424726278966</v>
       </c>
       <c r="T15">
-        <v>0.01828643610909826</v>
+        <v>0.01319883691433073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,365 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H16">
+        <v>443.6689</v>
+      </c>
+      <c r="I16">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J16">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>50.0323125</v>
-      </c>
-      <c r="H16">
-        <v>100.064625</v>
-      </c>
-      <c r="I16">
-        <v>0.08905802352064279</v>
-      </c>
-      <c r="J16">
-        <v>0.06118845668531954</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05808</v>
+        <v>1.4371335</v>
       </c>
       <c r="N16">
-        <v>0.17424</v>
+        <v>2.874267</v>
       </c>
       <c r="O16">
-        <v>0.1243258902387337</v>
+        <v>0.8941312919473962</v>
       </c>
       <c r="P16">
-        <v>0.154863481228669</v>
+        <v>0.8491804721997522</v>
       </c>
       <c r="Q16">
-        <v>2.90587671</v>
+        <v>212.53714636605</v>
       </c>
       <c r="R16">
-        <v>17.43526026</v>
+        <v>1275.2228781963</v>
       </c>
       <c r="S16">
-        <v>0.011072218057106</v>
+        <v>0.2219397512028897</v>
       </c>
       <c r="T16">
-        <v>0.009475857413298207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>50.0323125</v>
-      </c>
-      <c r="H17">
-        <v>100.064625</v>
-      </c>
-      <c r="I17">
-        <v>0.08905802352064279</v>
-      </c>
-      <c r="J17">
-        <v>0.06118845668531954</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.276358</v>
-      </c>
-      <c r="N17">
-        <v>0.552716</v>
-      </c>
-      <c r="O17">
-        <v>0.5915711841356054</v>
-      </c>
-      <c r="P17">
-        <v>0.4912507110352674</v>
-      </c>
-      <c r="Q17">
-        <v>13.826829817875</v>
-      </c>
-      <c r="R17">
-        <v>55.3073192715</v>
-      </c>
-      <c r="S17">
-        <v>0.05268416043088325</v>
-      </c>
-      <c r="T17">
-        <v>0.03005887285381388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H18">
-        <v>463.02893</v>
-      </c>
-      <c r="I18">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J18">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.020639</v>
-      </c>
-      <c r="N18">
-        <v>0.06191699999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.04417978733879518</v>
-      </c>
-      <c r="P18">
-        <v>0.0550314633105802</v>
-      </c>
-      <c r="Q18">
-        <v>3.185484695423333</v>
-      </c>
-      <c r="R18">
-        <v>28.66936225881</v>
-      </c>
-      <c r="S18">
-        <v>0.01213760413300571</v>
-      </c>
-      <c r="T18">
-        <v>0.01558145877053151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H19">
-        <v>463.02893</v>
-      </c>
-      <c r="I19">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J19">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.1120823333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.336247</v>
-      </c>
-      <c r="O19">
-        <v>0.2399231382868657</v>
-      </c>
-      <c r="P19">
-        <v>0.2988543444254835</v>
-      </c>
-      <c r="Q19">
-        <v>17.29912095841222</v>
-      </c>
-      <c r="R19">
-        <v>155.69208862571</v>
-      </c>
-      <c r="S19">
-        <v>0.06591457882182228</v>
-      </c>
-      <c r="T19">
-        <v>0.08461680584031701</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H20">
-        <v>463.02893</v>
-      </c>
-      <c r="I20">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J20">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.05808</v>
-      </c>
-      <c r="N20">
-        <v>0.17424</v>
-      </c>
-      <c r="O20">
-        <v>0.1243258902387337</v>
-      </c>
-      <c r="P20">
-        <v>0.154863481228669</v>
-      </c>
-      <c r="Q20">
-        <v>8.9642400848</v>
-      </c>
-      <c r="R20">
-        <v>80.6781607632</v>
-      </c>
-      <c r="S20">
-        <v>0.03415630835045164</v>
-      </c>
-      <c r="T20">
-        <v>0.04384762466168275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H21">
-        <v>463.02893</v>
-      </c>
-      <c r="I21">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J21">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.276358</v>
-      </c>
-      <c r="N21">
-        <v>0.552716</v>
-      </c>
-      <c r="O21">
-        <v>0.5915711841356054</v>
-      </c>
-      <c r="P21">
-        <v>0.4912507110352674</v>
-      </c>
-      <c r="Q21">
-        <v>42.65391634564666</v>
-      </c>
-      <c r="R21">
-        <v>255.92349807388</v>
-      </c>
-      <c r="S21">
-        <v>0.1625235720233147</v>
-      </c>
-      <c r="T21">
-        <v>0.1390913895345882</v>
+        <v>0.217728313712366</v>
       </c>
     </row>
   </sheetData>
